--- a/random_forest_sampling_comparison.xlsx
+++ b/random_forest_sampling_comparison.xlsx
@@ -487,22 +487,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.7829</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5995</v>
+        <v>0.61</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7644</v>
+        <v>0.7754</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.7829</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7604</v>
+        <v>0.7709</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9378</v>
+        <v>0.9357</v>
       </c>
     </row>
     <row r="3">
@@ -517,22 +517,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.7895</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5995</v>
+        <v>0.6161</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7644</v>
+        <v>0.7801</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.7895</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7604</v>
+        <v>0.7749</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9383</v>
+        <v>0.9351</v>
       </c>
     </row>
     <row r="4">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.8026</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6021</v>
+        <v>0.6677</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7698</v>
+        <v>0.8028999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.8026</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7703</v>
+        <v>0.8043</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9335</v>
+        <v>0.9379</v>
       </c>
     </row>
     <row r="5">
@@ -577,22 +577,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.6645</v>
+        <v>0.6776</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5659</v>
+        <v>0.577</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6752</v>
+        <v>0.6916</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6645</v>
+        <v>0.6776</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7866</v>
+        <v>0.7933</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9258999999999999</v>
+        <v>0.9239000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -607,22 +607,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.7302999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5828</v>
+        <v>0.6045</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7443</v>
+        <v>0.758</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7302999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7724</v>
+        <v>0.7692</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.9366</v>
       </c>
     </row>
   </sheetData>
